--- a/Base de dados/Cadastro Fornecedor.xlsx
+++ b/Base de dados/Cadastro Fornecedor.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
@@ -1255,34 +1255,6 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>00.000.000/0007-69</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TYTTBFFFHFCG</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>TESTE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>(55) 67677-8987</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
